--- a/T- and Chi2 test tables/all_tw_means_by_binary_target.xlsx
+++ b/T- and Chi2 test tables/all_tw_means_by_binary_target.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>variable</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>vid_dur_if_not_0</t>
+  </si>
+  <si>
+    <t>asking_for_eng</t>
+  </si>
+  <si>
+    <t>video_duration</t>
   </si>
 </sst>
 </file>
@@ -407,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,6 +577,52 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>0.02284064058808086</v>
+      </c>
+      <c r="D8">
+        <v>0.02556644213104715</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.17</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>4.182730076257577</v>
+      </c>
+      <c r="D9">
+        <v>4.437934935701164</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.336</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
